--- a/neutralization_assays/data/neut_plate_reader_data/VIDD5_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/VIDD5_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39500" yWindow="5860" windowWidth="26840" windowHeight="11560" activeTab="5"/>
+    <workbookView xWindow="34280" yWindow="460" windowWidth="26360" windowHeight="17440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -676,12 +676,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -767,6 +761,12 @@
   </si>
   <si>
     <t>4/25/2019 10:33:10 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1397,67 +1399,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>16699</v>
@@ -1498,7 +1497,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>39698</v>
@@ -1539,7 +1538,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34432</v>
@@ -1580,7 +1579,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>36548</v>
@@ -1621,7 +1620,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>34707</v>
@@ -1662,7 +1661,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>35031</v>
@@ -1701,12 +1700,17 @@
         <v>37558</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1760,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1924,67 +1930,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9330</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31559</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31205</v>
@@ -2107,7 +2110,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28959</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>29032</v>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>28599</v>
@@ -2228,12 +2231,17 @@
         <v>29764</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2246,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2289,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2453,67 +2461,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>10262</v>
@@ -2554,7 +2559,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>32594</v>
@@ -2595,7 +2600,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>29678</v>
@@ -2636,7 +2641,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>30207</v>
@@ -2677,7 +2682,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>29686</v>
@@ -2718,7 +2723,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>30698</v>
@@ -2757,12 +2762,17 @@
         <v>31828</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2816,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2980,67 +2992,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>59</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8606</v>
@@ -3081,7 +3090,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>30807</v>
@@ -3122,7 +3131,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28668</v>
@@ -3163,7 +3172,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28184</v>
@@ -3204,7 +3213,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28268</v>
@@ -3245,7 +3254,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>28505</v>
@@ -3284,12 +3293,17 @@
         <v>28513</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3302,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3345,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3509,67 +3523,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>10461</v>
@@ -3610,7 +3621,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>36114</v>
@@ -3651,7 +3662,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34220</v>
@@ -3692,7 +3703,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>33608</v>
@@ -3733,7 +3744,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>33130</v>
@@ -3774,7 +3785,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>31275</v>
@@ -3813,12 +3824,17 @@
         <v>32607</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3848,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3874,7 +3890,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4038,67 +4054,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>59</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8505</v>
@@ -4139,7 +4152,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31610</v>
@@ -4180,7 +4193,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>28901</v>
@@ -4221,7 +4234,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25002</v>
@@ -4262,7 +4275,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26114</v>
@@ -4303,7 +4316,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25940</v>
@@ -4342,12 +4355,17 @@
         <v>26595</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
